--- a/Market_data_changed3.xlsx
+++ b/Market_data_changed3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chesn\OneDrive\Рабочий стол\v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chesn\OneDrive\Рабочий стол\final_version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C72477B-417E-4F4E-B707-6B94FB5AF161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF47722-4E80-4702-B260-8645E149D071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$H$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$1:$H$150</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="165">
   <si>
     <t>Пятерочка</t>
   </si>
@@ -533,7 +533,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,14 +559,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,12 +585,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -734,39 +722,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1096,10 +1070,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:R162"/>
+  <dimension ref="A1:R161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:XFD89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1111,7 +1085,7 @@
     <col min="5" max="6" width="12.44140625" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.109375" style="15" customWidth="1"/>
     <col min="8" max="8" width="13.21875" customWidth="1"/>
-    <col min="9" max="18" width="8.88671875" style="45"/>
+    <col min="9" max="18" width="8.88671875" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -1249,28 +1223,28 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="40">
+      <c r="B6" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="34">
         <v>99</v>
       </c>
-      <c r="D6" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="41">
+      <c r="D6" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="35">
         <v>1979</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="35">
         <v>29</v>
       </c>
-      <c r="G6" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="34">
+      <c r="G6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="31">
         <f t="shared" si="0"/>
         <v>68.241379310344826</v>
       </c>
@@ -1356,7 +1330,7 @@
         <v>73.225806451612897</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="45" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="39" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>151</v>
       </c>
@@ -1390,7 +1364,7 @@
       <c r="B11" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="32">
         <v>174</v>
       </c>
       <c r="D11" s="24" t="s">
@@ -1405,7 +1379,7 @@
       <c r="G11" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="30">
         <f t="shared" ref="H11:H42" si="1">E11/F11</f>
         <v>80.078431372549019</v>
       </c>
@@ -1459,7 +1433,7 @@
       <c r="G13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="30">
         <f t="shared" si="1"/>
         <v>89.921568627450981</v>
       </c>
@@ -1517,16 +1491,16 @@
         <f t="shared" si="1"/>
         <v>93.517241379310349</v>
       </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
     </row>
     <row r="16" spans="1:18" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1547,47 +1521,47 @@
       <c r="F16" s="3">
         <v>35</v>
       </c>
-      <c r="G16" s="54" t="s">
+      <c r="G16" s="48" t="s">
         <v>5</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
         <v>98.4</v>
       </c>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
     </row>
     <row r="17" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="47">
+      <c r="B17" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="41">
         <v>90</v>
       </c>
-      <c r="D17" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="48">
+      <c r="D17" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="42">
         <v>2858</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="42">
         <v>29</v>
       </c>
       <c r="G17" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="39">
         <f t="shared" si="1"/>
         <v>98.551724137931032</v>
       </c>
@@ -1653,7 +1627,7 @@
       <c r="B20" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="32">
         <v>83</v>
       </c>
       <c r="D20" s="24" t="s">
@@ -1668,12 +1642,12 @@
       <c r="G20" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="30">
         <f t="shared" si="1"/>
         <v>116.56862745098039</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="45" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="39" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -1700,7 +1674,7 @@
         <v>118.89655172413794</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="45" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="39" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>123</v>
       </c>
@@ -1830,7 +1804,7 @@
       <c r="G26" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="31">
+      <c r="H26" s="30">
         <f t="shared" si="1"/>
         <v>134.27586206896552</v>
       </c>
@@ -1916,7 +1890,7 @@
         <v>140.41379310344828</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="45" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="39" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>99</v>
       </c>
@@ -1943,7 +1917,7 @@
         <v>142.93548387096774</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="45" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="39" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
         <v>42</v>
       </c>
@@ -1965,7 +1939,7 @@
       <c r="G31" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="31">
+      <c r="H31" s="30">
         <f t="shared" si="1"/>
         <v>144.62068965517241</v>
       </c>
@@ -2070,7 +2044,7 @@
       <c r="F35" s="3">
         <v>27</v>
       </c>
-      <c r="G35" s="54" t="s">
+      <c r="G35" s="48" t="s">
         <v>5</v>
       </c>
       <c r="H35">
@@ -2241,28 +2215,28 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="40">
+      <c r="C42" s="34">
         <v>149</v>
       </c>
-      <c r="D42" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="44">
+      <c r="D42" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="38">
         <v>6359</v>
       </c>
-      <c r="F42" s="41">
+      <c r="F42" s="35">
         <v>35</v>
       </c>
-      <c r="G42" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="34">
+      <c r="G42" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="31">
         <f t="shared" si="1"/>
         <v>181.68571428571428</v>
       </c>
@@ -2509,16 +2483,16 @@
         <f t="shared" si="2"/>
         <v>200.06666666666666</v>
       </c>
-      <c r="I51" s="45"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="45"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="45"/>
-      <c r="P51" s="45"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="45"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
     </row>
     <row r="52" spans="1:18" s="28" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
@@ -2546,16 +2520,16 @@
         <f t="shared" si="2"/>
         <v>200.76666666666668</v>
       </c>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="45"/>
-      <c r="O52" s="45"/>
-      <c r="P52" s="45"/>
-      <c r="Q52" s="45"/>
-      <c r="R52" s="45"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
     </row>
     <row r="53" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -2768,7 +2742,7 @@
       <c r="G60" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H60" s="31">
+      <c r="H60" s="30">
         <f t="shared" si="2"/>
         <v>230.27777777777777</v>
       </c>
@@ -2822,7 +2796,7 @@
       <c r="G62" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H62" s="31">
+      <c r="H62" s="30">
         <f t="shared" si="2"/>
         <v>239.25806451612902</v>
       </c>
@@ -2894,13 +2868,13 @@
       <c r="D65" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E65" s="50">
+      <c r="E65" s="44">
         <v>7913</v>
       </c>
       <c r="F65" s="26">
         <v>30</v>
       </c>
-      <c r="G65" s="52" t="s">
+      <c r="G65" s="46" t="s">
         <v>20</v>
       </c>
       <c r="H65" s="28">
@@ -3092,34 +3066,34 @@
       <c r="G72" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H72" s="31">
+      <c r="H72" s="30">
         <f t="shared" si="2"/>
         <v>293.03333333333336</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="45" t="s">
+      <c r="A73" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="47">
+      <c r="B73" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="41">
         <v>205</v>
       </c>
-      <c r="D73" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73" s="48">
+      <c r="D73" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="42">
         <v>9122</v>
       </c>
-      <c r="F73" s="48">
+      <c r="F73" s="42">
         <v>31</v>
       </c>
       <c r="G73" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H73" s="45">
+      <c r="H73" s="39">
         <f t="shared" si="2"/>
         <v>294.25806451612902</v>
       </c>
@@ -3174,19 +3148,19 @@
         <v>2</v>
       </c>
       <c r="H75" s="28">
-        <f t="shared" ref="H75:H106" si="3">E75/F75</f>
+        <f t="shared" ref="H75:H105" si="3">E75/F75</f>
         <v>311.18181818181819</v>
       </c>
-      <c r="I75" s="45"/>
-      <c r="J75" s="45"/>
-      <c r="K75" s="45"/>
-      <c r="L75" s="45"/>
-      <c r="M75" s="45"/>
-      <c r="N75" s="45"/>
-      <c r="O75" s="45"/>
-      <c r="P75" s="45"/>
-      <c r="Q75" s="45"/>
-      <c r="R75" s="45"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="39"/>
+      <c r="N75" s="39"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="39"/>
+      <c r="Q75" s="39"/>
+      <c r="R75" s="39"/>
     </row>
     <row r="76" spans="1:18" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
@@ -3214,16 +3188,16 @@
         <f t="shared" si="3"/>
         <v>317.90625</v>
       </c>
-      <c r="I76" s="45"/>
-      <c r="J76" s="45"/>
-      <c r="K76" s="45"/>
-      <c r="L76" s="45"/>
-      <c r="M76" s="45"/>
-      <c r="N76" s="45"/>
-      <c r="O76" s="45"/>
-      <c r="P76" s="45"/>
-      <c r="Q76" s="45"/>
-      <c r="R76" s="45"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="39"/>
+      <c r="M76" s="39"/>
+      <c r="N76" s="39"/>
+      <c r="O76" s="39"/>
+      <c r="P76" s="39"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="39"/>
     </row>
     <row r="77" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
@@ -3306,7 +3280,7 @@
         <v>353.61111111111109</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="43" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" s="37" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>119</v>
       </c>
@@ -3332,18 +3306,18 @@
         <f t="shared" si="3"/>
         <v>359.29411764705884</v>
       </c>
-      <c r="I80" s="45"/>
-      <c r="J80" s="45"/>
-      <c r="K80" s="45"/>
-      <c r="L80" s="45"/>
-      <c r="M80" s="45"/>
-      <c r="N80" s="45"/>
-      <c r="O80" s="45"/>
-      <c r="P80" s="45"/>
-      <c r="Q80" s="45"/>
-      <c r="R80" s="45"/>
-    </row>
-    <row r="81" spans="1:18" s="43" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="39"/>
+      <c r="M80" s="39"/>
+      <c r="N80" s="39"/>
+      <c r="O80" s="39"/>
+      <c r="P80" s="39"/>
+      <c r="Q80" s="39"/>
+      <c r="R80" s="39"/>
+    </row>
+    <row r="81" spans="1:18" s="37" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>55</v>
       </c>
@@ -3369,18 +3343,18 @@
         <f t="shared" si="3"/>
         <v>361.63888888888891</v>
       </c>
-      <c r="I81" s="45"/>
-      <c r="J81" s="45"/>
-      <c r="K81" s="45"/>
-      <c r="L81" s="45"/>
-      <c r="M81" s="45"/>
-      <c r="N81" s="45"/>
-      <c r="O81" s="45"/>
-      <c r="P81" s="45"/>
-      <c r="Q81" s="45"/>
-      <c r="R81" s="45"/>
-    </row>
-    <row r="82" spans="1:18" s="43" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="39"/>
+      <c r="L81" s="39"/>
+      <c r="M81" s="39"/>
+      <c r="N81" s="39"/>
+      <c r="O81" s="39"/>
+      <c r="P81" s="39"/>
+      <c r="Q81" s="39"/>
+      <c r="R81" s="39"/>
+    </row>
+    <row r="82" spans="1:18" s="37" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>102</v>
       </c>
@@ -3406,18 +3380,18 @@
         <f t="shared" si="3"/>
         <v>372.5</v>
       </c>
-      <c r="I82" s="45"/>
-      <c r="J82" s="45"/>
-      <c r="K82" s="45"/>
-      <c r="L82" s="45"/>
-      <c r="M82" s="45"/>
-      <c r="N82" s="45"/>
-      <c r="O82" s="45"/>
-      <c r="P82" s="45"/>
-      <c r="Q82" s="45"/>
-      <c r="R82" s="45"/>
-    </row>
-    <row r="83" spans="1:18" s="43" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I82" s="39"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="39"/>
+      <c r="M82" s="39"/>
+      <c r="N82" s="39"/>
+      <c r="O82" s="39"/>
+      <c r="P82" s="39"/>
+      <c r="Q82" s="39"/>
+      <c r="R82" s="39"/>
+    </row>
+    <row r="83" spans="1:18" s="37" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -3443,16 +3417,16 @@
         <f t="shared" si="3"/>
         <v>379.35483870967744</v>
       </c>
-      <c r="I83" s="45"/>
-      <c r="J83" s="45"/>
-      <c r="K83" s="45"/>
-      <c r="L83" s="45"/>
-      <c r="M83" s="45"/>
-      <c r="N83" s="45"/>
-      <c r="O83" s="45"/>
-      <c r="P83" s="45"/>
-      <c r="Q83" s="45"/>
-      <c r="R83" s="45"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="39"/>
+      <c r="L83" s="39"/>
+      <c r="M83" s="39"/>
+      <c r="N83" s="39"/>
+      <c r="O83" s="39"/>
+      <c r="P83" s="39"/>
+      <c r="Q83" s="39"/>
+      <c r="R83" s="39"/>
     </row>
     <row r="84" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
@@ -3590,695 +3564,695 @@
       </c>
     </row>
     <row r="89" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B89" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" s="30">
-        <v>20</v>
-      </c>
-      <c r="D89" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="36">
-        <v>13880</v>
-      </c>
-      <c r="F89" s="36">
-        <v>29</v>
-      </c>
-      <c r="G89" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="35">
+      <c r="A89" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="6">
+        <v>569</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>15205</v>
+      </c>
+      <c r="F89" s="3">
+        <v>31</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89">
         <f t="shared" si="3"/>
-        <v>478.62068965517244</v>
+        <v>490.48387096774195</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C90" s="6">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E90" s="3">
-        <v>15205</v>
+        <v>15778</v>
       </c>
       <c r="F90" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H90">
         <f t="shared" si="3"/>
-        <v>490.48387096774195</v>
+        <v>493.0625</v>
       </c>
     </row>
     <row r="91" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C91" s="6">
-        <v>593</v>
+        <v>208</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E91" s="3">
-        <v>15778</v>
+        <v>18163</v>
       </c>
       <c r="F91" s="3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H91">
         <f t="shared" si="3"/>
-        <v>493.0625</v>
+        <v>518.94285714285718</v>
       </c>
     </row>
     <row r="92" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C92" s="6">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" s="3">
-        <v>18163</v>
+        <v>19</v>
+      </c>
+      <c r="E92" s="9">
+        <v>15892</v>
       </c>
       <c r="F92" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H92">
         <f t="shared" si="3"/>
-        <v>518.94285714285718</v>
+        <v>529.73333333333335</v>
       </c>
     </row>
     <row r="93" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C93" s="6">
-        <v>212</v>
+        <v>540</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E93" s="9">
-        <v>15892</v>
+        <v>16969</v>
       </c>
       <c r="F93" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H93">
         <f t="shared" si="3"/>
-        <v>529.73333333333335</v>
+        <v>530.28125</v>
       </c>
     </row>
     <row r="94" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" s="6">
-        <v>540</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="9">
-        <v>16969</v>
-      </c>
-      <c r="F94" s="3">
-        <v>32</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="3"/>
-        <v>530.28125</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="45" t="s">
+      <c r="A94" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="B95" s="46" t="s">
+      <c r="B94" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="47">
+      <c r="C94" s="41">
         <v>487</v>
       </c>
-      <c r="D95" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E95" s="49">
+      <c r="D94" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="43">
         <v>18674</v>
       </c>
-      <c r="F95" s="48">
+      <c r="F94" s="42">
         <v>35</v>
       </c>
-      <c r="G95" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="H95" s="45">
+      <c r="G94" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="39">
         <f t="shared" si="3"/>
         <v>533.54285714285709</v>
       </c>
     </row>
+    <row r="95" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>86</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="6">
+        <v>930</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="3">
+        <v>15711</v>
+      </c>
+      <c r="F95" s="3">
+        <v>29</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="3"/>
+        <v>541.75862068965512</v>
+      </c>
+    </row>
     <row r="96" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C96" s="6">
-        <v>930</v>
+        <v>87</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E96" s="3">
-        <v>15711</v>
-      </c>
-      <c r="F96" s="3">
-        <v>29</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E96" s="16">
+        <v>17170</v>
+      </c>
+      <c r="F96" s="16">
+        <v>31</v>
+      </c>
+      <c r="G96" s="19" t="s">
+        <v>2</v>
       </c>
       <c r="H96">
         <f t="shared" si="3"/>
-        <v>541.75862068965512</v>
+        <v>553.87096774193549</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C97" s="6">
-        <v>87</v>
+        <v>251</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E97" s="16">
-        <v>17170</v>
+        <v>18190</v>
       </c>
       <c r="F97" s="16">
-        <v>31</v>
-      </c>
-      <c r="G97" s="19" t="s">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="G97" s="29" t="s">
+        <v>5</v>
       </c>
       <c r="H97">
         <f t="shared" si="3"/>
-        <v>553.87096774193549</v>
+        <v>568.4375</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>36</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C98" s="6">
-        <v>251</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98" s="16">
-        <v>18190</v>
-      </c>
-      <c r="F98" s="16">
-        <v>32</v>
-      </c>
-      <c r="G98" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="H98">
-        <f t="shared" si="3"/>
-        <v>568.4375</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="28" t="s">
+      <c r="A98" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B99" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" s="25">
+      <c r="B98" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="25">
         <v>175</v>
       </c>
-      <c r="D99" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E99" s="26">
+      <c r="D98" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98" s="26">
         <v>17202</v>
       </c>
-      <c r="F99" s="26">
+      <c r="F98" s="26">
         <v>30</v>
       </c>
-      <c r="G99" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H99" s="31">
+      <c r="G98" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" s="30">
         <f t="shared" si="3"/>
         <v>573.4</v>
       </c>
     </row>
+    <row r="99" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="1">
+        <v>935</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="3">
+        <v>17374</v>
+      </c>
+      <c r="F99" s="3">
+        <v>29</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="3"/>
+        <v>599.10344827586209</v>
+      </c>
+    </row>
     <row r="100" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>54</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="1">
-        <v>935</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" s="3">
-        <v>17374</v>
+        <v>52</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="6">
+        <v>517</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="9">
+        <v>16604</v>
       </c>
       <c r="F100" s="3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H100">
         <f t="shared" si="3"/>
-        <v>599.10344827586209</v>
+        <v>614.96296296296293</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C101" s="6">
-        <v>517</v>
+        <v>425</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E101" s="9">
-        <v>16604</v>
+        <v>18583</v>
       </c>
       <c r="F101" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H101">
         <f t="shared" si="3"/>
-        <v>614.96296296296293</v>
+        <v>640.79310344827582</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C102" s="6">
-        <v>425</v>
+        <v>686</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E102" s="9">
-        <v>18583</v>
+        <v>17773</v>
       </c>
       <c r="F102" s="3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H102">
         <f t="shared" si="3"/>
-        <v>640.79310344827582</v>
+        <v>658.25925925925924</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C103" s="6">
-        <v>686</v>
+        <v>570</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" s="9">
-        <v>17773</v>
+        <v>9</v>
+      </c>
+      <c r="E103" s="3">
+        <v>19768</v>
       </c>
       <c r="F103" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H103">
         <f t="shared" si="3"/>
-        <v>658.25925925925924</v>
+        <v>658.93333333333328</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" s="6">
-        <v>570</v>
+        <v>1</v>
+      </c>
+      <c r="C104" s="10">
+        <v>327.9</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104" s="3">
-        <v>19768</v>
+        <v>0</v>
+      </c>
+      <c r="E104" s="9">
+        <v>21339</v>
       </c>
       <c r="F104" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H104">
         <f t="shared" si="3"/>
-        <v>658.93333333333328</v>
+        <v>666.84375</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C105" s="10">
-        <v>327.9</v>
+        <v>3</v>
+      </c>
+      <c r="C105" s="6">
+        <v>166</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E105" s="9">
-        <v>21339</v>
+        <v>4</v>
+      </c>
+      <c r="E105" s="3">
+        <v>20833</v>
       </c>
       <c r="F105" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H105">
         <f t="shared" si="3"/>
-        <v>666.84375</v>
+        <v>672.0322580645161</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>56</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" s="6">
-        <v>166</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E106" s="3">
+      <c r="A106" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B106" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="41">
+        <v>406</v>
+      </c>
+      <c r="D106" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" s="42">
         <v>20833</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="42">
         <v>31</v>
       </c>
-      <c r="G106" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H106">
-        <f t="shared" si="3"/>
+      <c r="G106" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H106" s="39">
+        <f t="shared" ref="H106:H137" si="4">E106/F106</f>
         <v>672.0322580645161</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="B107" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C107" s="47">
-        <v>406</v>
-      </c>
-      <c r="D107" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E107" s="48">
-        <v>20833</v>
-      </c>
-      <c r="F107" s="48">
+      <c r="A107" t="s">
+        <v>51</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="6">
+        <v>634</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="16">
+        <v>21333</v>
+      </c>
+      <c r="F107" s="16">
         <v>31</v>
       </c>
-      <c r="G107" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H107" s="45">
-        <f t="shared" ref="H107:H138" si="4">E107/F107</f>
-        <v>672.0322580645161</v>
+      <c r="G107" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="4"/>
+        <v>688.16129032258061</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C108" s="6">
-        <v>634</v>
+        <v>295</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108" s="16">
-        <v>21333</v>
-      </c>
-      <c r="F108" s="16">
-        <v>31</v>
-      </c>
-      <c r="G108" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E108" s="3">
+        <v>26854</v>
+      </c>
+      <c r="F108" s="3">
+        <v>39</v>
+      </c>
+      <c r="G108" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H108">
         <f t="shared" si="4"/>
-        <v>688.16129032258061</v>
+        <v>688.56410256410254</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C109" s="6">
-        <v>295</v>
+        <v>662</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E109" s="3">
-        <v>26854</v>
-      </c>
-      <c r="F109" s="3">
-        <v>39</v>
-      </c>
-      <c r="G109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="16">
+        <v>20664</v>
+      </c>
+      <c r="F109" s="16">
+        <v>30</v>
+      </c>
+      <c r="G109" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H109">
         <f t="shared" si="4"/>
-        <v>688.56410256410254</v>
+        <v>688.8</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C110" s="6">
-        <v>662</v>
+        <v>968</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" s="16">
-        <v>20664</v>
-      </c>
-      <c r="F110" s="16">
-        <v>30</v>
-      </c>
-      <c r="G110" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="3">
+        <v>20045</v>
+      </c>
+      <c r="F110" s="3">
+        <v>29</v>
+      </c>
+      <c r="G110" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H110">
         <f t="shared" si="4"/>
-        <v>688.8</v>
+        <v>691.20689655172418</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C111" s="6">
-        <v>968</v>
+        <v>592</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E111" s="3">
-        <v>20045</v>
+        <v>23894</v>
       </c>
       <c r="F111" s="3">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H111">
         <f t="shared" si="4"/>
-        <v>691.20689655172418</v>
+        <v>702.76470588235293</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C112" s="6">
-        <v>592</v>
+        <v>718</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E112" s="3">
-        <v>23894</v>
+        <v>22725</v>
       </c>
       <c r="F112" s="3">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H112">
         <f t="shared" si="4"/>
-        <v>702.76470588235293</v>
+        <v>710.15625</v>
       </c>
     </row>
     <row r="113" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C113" s="6">
-        <v>718</v>
+        <v>851</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E113" s="3">
-        <v>22725</v>
+        <v>22312</v>
       </c>
       <c r="F113" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H113">
         <f t="shared" si="4"/>
-        <v>710.15625</v>
+        <v>719.74193548387098</v>
       </c>
     </row>
     <row r="114" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>132</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C114" s="6">
-        <v>851</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114" s="3">
-        <v>22312</v>
+        <v>35</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="11">
+        <v>253.7</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114" s="9">
+        <v>22610</v>
       </c>
       <c r="F114" s="3">
         <v>31</v>
@@ -4288,665 +4262,665 @@
       </c>
       <c r="H114">
         <f t="shared" si="4"/>
-        <v>719.74193548387098</v>
+        <v>729.35483870967744</v>
       </c>
     </row>
     <row r="115" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C115" s="11">
-        <v>253.7</v>
+      <c r="C115" s="1">
+        <v>247</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E115" s="9">
-        <v>22610</v>
+        <v>14</v>
+      </c>
+      <c r="E115" s="3">
+        <v>21241</v>
       </c>
       <c r="F115" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H115">
         <f t="shared" si="4"/>
-        <v>729.35483870967744</v>
+        <v>732.44827586206895</v>
       </c>
     </row>
     <row r="116" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>161</v>
-      </c>
-      <c r="B116" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B116" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C116" s="1">
-        <v>247</v>
-      </c>
-      <c r="D116" s="2" t="s">
+      <c r="C116" s="6">
+        <v>256</v>
+      </c>
+      <c r="D116" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E116" s="3">
-        <v>21241</v>
+      <c r="E116" s="9">
+        <v>25757</v>
       </c>
       <c r="F116" s="3">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H116">
         <f t="shared" si="4"/>
-        <v>732.44827586206895</v>
+        <v>735.91428571428571</v>
       </c>
     </row>
     <row r="117" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C117" s="6">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E117" s="9">
-        <v>25757</v>
-      </c>
-      <c r="F117" s="3">
-        <v>35</v>
-      </c>
-      <c r="G117" s="4" t="s">
+      <c r="E117" s="16">
+        <v>21558</v>
+      </c>
+      <c r="F117" s="16">
+        <v>29</v>
+      </c>
+      <c r="G117" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H117">
         <f t="shared" si="4"/>
-        <v>735.91428571428571</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>743.37931034482756</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C118" s="6">
-        <v>269</v>
+        <v>550</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E118" s="16">
-        <v>21558</v>
-      </c>
-      <c r="F118" s="16">
-        <v>29</v>
-      </c>
-      <c r="G118" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" s="3">
+        <v>23235</v>
+      </c>
+      <c r="F118" s="3">
+        <v>30</v>
+      </c>
+      <c r="G118" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H118">
         <f t="shared" si="4"/>
-        <v>743.37931034482756</v>
-      </c>
+        <v>774.5</v>
+      </c>
+      <c r="I118" s="39"/>
+      <c r="J118" s="39"/>
+      <c r="K118" s="39"/>
+      <c r="L118" s="39"/>
+      <c r="M118" s="39"/>
+      <c r="N118" s="39"/>
+      <c r="O118" s="39"/>
+      <c r="P118" s="39"/>
+      <c r="Q118" s="39"/>
+      <c r="R118" s="39"/>
     </row>
     <row r="119" spans="1:18" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C119" s="6">
-        <v>550</v>
+        <v>354</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E119" s="3">
-        <v>23235</v>
-      </c>
-      <c r="F119" s="3">
-        <v>30</v>
-      </c>
-      <c r="G119" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E119" s="17">
+        <v>25108</v>
+      </c>
+      <c r="F119" s="17">
+        <v>31</v>
+      </c>
+      <c r="G119" s="20" t="s">
         <v>5</v>
       </c>
       <c r="H119">
         <f t="shared" si="4"/>
-        <v>774.5</v>
-      </c>
-      <c r="I119" s="45"/>
-      <c r="J119" s="45"/>
-      <c r="K119" s="45"/>
-      <c r="L119" s="45"/>
-      <c r="M119" s="45"/>
-      <c r="N119" s="45"/>
-      <c r="O119" s="45"/>
-      <c r="P119" s="45"/>
-      <c r="Q119" s="45"/>
-      <c r="R119" s="45"/>
-    </row>
-    <row r="120" spans="1:18" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>809.93548387096769</v>
+      </c>
+      <c r="I119" s="39"/>
+      <c r="J119" s="39"/>
+      <c r="K119" s="39"/>
+      <c r="L119" s="39"/>
+      <c r="M119" s="39"/>
+      <c r="N119" s="39"/>
+      <c r="O119" s="39"/>
+      <c r="P119" s="39"/>
+      <c r="Q119" s="39"/>
+      <c r="R119" s="39"/>
+    </row>
+    <row r="120" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C120" s="6">
-        <v>354</v>
+        <v>825</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E120" s="17">
-        <v>25108</v>
-      </c>
-      <c r="F120" s="17">
-        <v>31</v>
-      </c>
-      <c r="G120" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" s="3">
+        <v>25535</v>
+      </c>
+      <c r="F120" s="3">
+        <v>30</v>
+      </c>
+      <c r="G120" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H120">
         <f t="shared" si="4"/>
-        <v>809.93548387096769</v>
-      </c>
-      <c r="I120" s="45"/>
-      <c r="J120" s="45"/>
-      <c r="K120" s="45"/>
-      <c r="L120" s="45"/>
-      <c r="M120" s="45"/>
-      <c r="N120" s="45"/>
-      <c r="O120" s="45"/>
-      <c r="P120" s="45"/>
-      <c r="Q120" s="45"/>
-      <c r="R120" s="45"/>
+        <v>851.16666666666663</v>
+      </c>
     </row>
     <row r="121" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C121" s="6">
-        <v>825</v>
+        <v>381</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E121" s="3">
-        <v>25535</v>
+        <v>30764</v>
       </c>
       <c r="F121" s="3">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H121">
         <f t="shared" si="4"/>
-        <v>851.16666666666663</v>
+        <v>854.55555555555554</v>
       </c>
     </row>
     <row r="122" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C122" s="6">
-        <v>381</v>
+        <v>835</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E122" s="3">
-        <v>30764</v>
-      </c>
-      <c r="F122" s="3">
-        <v>36</v>
-      </c>
-      <c r="G122" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" s="16">
+        <v>25790</v>
+      </c>
+      <c r="F122" s="16">
+        <v>30</v>
+      </c>
+      <c r="G122" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H122">
         <f t="shared" si="4"/>
-        <v>854.55555555555554</v>
+        <v>859.66666666666663</v>
       </c>
     </row>
     <row r="123" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C123" s="6">
-        <v>835</v>
+        <v>265</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123" s="16">
-        <v>25790</v>
-      </c>
-      <c r="F123" s="16">
-        <v>30</v>
-      </c>
-      <c r="G123" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E123" s="3">
+        <v>25353</v>
+      </c>
+      <c r="F123" s="3">
+        <v>29</v>
+      </c>
+      <c r="G123" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H123">
         <f t="shared" si="4"/>
-        <v>859.66666666666663</v>
+        <v>874.24137931034488</v>
       </c>
     </row>
     <row r="124" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C124" s="6">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E124" s="3">
-        <v>25353</v>
+        <v>25355</v>
       </c>
       <c r="F124" s="3">
         <v>29</v>
       </c>
-      <c r="G124" s="4" t="s">
+      <c r="G124" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H124">
         <f t="shared" si="4"/>
-        <v>874.24137931034488</v>
+        <v>874.31034482758616</v>
       </c>
     </row>
     <row r="125" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>58</v>
-      </c>
-      <c r="B125" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C125" s="6">
-        <v>298</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E125" s="3">
-        <v>25355</v>
-      </c>
-      <c r="F125" s="3">
-        <v>29</v>
-      </c>
-      <c r="G125" s="22" t="s">
+      <c r="C125" s="1">
+        <v>253</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" s="18">
+        <v>26418</v>
+      </c>
+      <c r="F125" s="18">
+        <v>30</v>
+      </c>
+      <c r="G125" s="21" t="s">
         <v>5</v>
       </c>
       <c r="H125">
         <f t="shared" si="4"/>
-        <v>874.31034482758616</v>
+        <v>880.6</v>
       </c>
     </row>
     <row r="126" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C126" s="1">
-        <v>253</v>
+        <v>396</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E126" s="18">
-        <v>26418</v>
+        <v>27364</v>
       </c>
       <c r="F126" s="18">
-        <v>30</v>
-      </c>
-      <c r="G126" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G126" s="47" t="s">
         <v>5</v>
       </c>
       <c r="H126">
         <f t="shared" si="4"/>
-        <v>880.6</v>
+        <v>882.70967741935488</v>
       </c>
     </row>
     <row r="127" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C127" s="1">
-        <v>396</v>
+        <v>664</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E127" s="18">
-        <v>27364</v>
-      </c>
-      <c r="F127" s="18">
-        <v>31</v>
-      </c>
-      <c r="G127" s="53" t="s">
-        <v>5</v>
+      <c r="E127" s="3">
+        <v>24945</v>
+      </c>
+      <c r="F127" s="3">
+        <v>28</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H127">
         <f t="shared" si="4"/>
-        <v>882.70967741935488</v>
+        <v>890.89285714285711</v>
       </c>
     </row>
     <row r="128" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>160</v>
-      </c>
-      <c r="B128" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B128" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C128" s="1">
-        <v>664</v>
-      </c>
-      <c r="D128" s="2" t="s">
+      <c r="C128" s="6">
+        <v>202</v>
+      </c>
+      <c r="D128" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E128" s="3">
-        <v>24945</v>
+        <v>32838</v>
       </c>
       <c r="F128" s="3">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H128">
         <f t="shared" si="4"/>
-        <v>890.89285714285711</v>
+        <v>912.16666666666663</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>105</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C129" s="6">
-        <v>202</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E129" s="3">
-        <v>32838</v>
-      </c>
-      <c r="F129" s="3">
-        <v>36</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H129">
-        <f t="shared" si="4"/>
-        <v>912.16666666666663</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="28" t="s">
+      <c r="A129" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="B130" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" s="25">
+      <c r="B129" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" s="25">
         <v>228</v>
       </c>
-      <c r="D130" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E130" s="50">
+      <c r="D129" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129" s="44">
         <v>27419</v>
       </c>
-      <c r="F130" s="26">
+      <c r="F129" s="26">
         <v>30</v>
       </c>
-      <c r="G130" s="27" t="s">
+      <c r="G129" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H130" s="28">
+      <c r="H129" s="28">
         <f t="shared" si="4"/>
         <v>913.9666666666667</v>
       </c>
     </row>
+    <row r="130" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>116</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="6">
+        <v>872</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" s="9">
+        <v>27356</v>
+      </c>
+      <c r="F130" s="3">
+        <v>29</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="4"/>
+        <v>943.31034482758616</v>
+      </c>
+    </row>
     <row r="131" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C131" s="6">
-        <v>872</v>
+        <v>199</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E131" s="9">
-        <v>27356</v>
+        <v>33958</v>
       </c>
       <c r="F131" s="3">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H131">
         <f t="shared" si="4"/>
-        <v>943.31034482758616</v>
+        <v>970.2285714285714</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C132" s="6">
-        <v>199</v>
+        <v>682</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E132" s="9">
-        <v>33958</v>
+        <v>9</v>
+      </c>
+      <c r="E132" s="3">
+        <v>32993</v>
       </c>
       <c r="F132" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H132">
         <f t="shared" si="4"/>
-        <v>970.2285714285714</v>
+        <v>970.38235294117646</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C133" s="6">
-        <v>682</v>
+        <v>291</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E133" s="3">
-        <v>32993</v>
+        <v>32619</v>
       </c>
       <c r="F133" s="3">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H133">
         <f t="shared" si="4"/>
-        <v>970.38235294117646</v>
+        <v>1019.34375</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C134" s="6">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E134" s="3">
-        <v>32619</v>
+        <v>30044</v>
       </c>
       <c r="F134" s="3">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H134">
         <f t="shared" si="4"/>
-        <v>1019.34375</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C135" s="6">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E135" s="3">
-        <v>30044</v>
+        <v>32778</v>
       </c>
       <c r="F135" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H135">
         <f t="shared" si="4"/>
-        <v>1036</v>
+        <v>1057.3548387096773</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C136" s="6">
-        <v>279</v>
+        <v>955</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E136" s="3">
-        <v>32778</v>
+        <v>37981</v>
       </c>
       <c r="F136" s="3">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H136">
         <f t="shared" si="4"/>
-        <v>1057.3548387096773</v>
+        <v>1085.1714285714286</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C137" s="6">
-        <v>955</v>
+        <v>628</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E137" s="3">
-        <v>37981</v>
-      </c>
-      <c r="F137" s="3">
-        <v>35</v>
-      </c>
-      <c r="G137" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E137" s="17">
+        <v>33652</v>
+      </c>
+      <c r="F137" s="17">
+        <v>31</v>
+      </c>
+      <c r="G137" s="20" t="s">
         <v>5</v>
       </c>
       <c r="H137">
         <f t="shared" si="4"/>
-        <v>1085.1714285714286</v>
+        <v>1085.5483870967741</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C138" s="6">
-        <v>628</v>
+        <v>1200</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E138" s="17">
-        <v>33652</v>
+        <v>34500</v>
       </c>
       <c r="F138" s="17">
         <v>31</v>
@@ -4955,380 +4929,361 @@
         <v>5</v>
       </c>
       <c r="H138">
-        <f t="shared" si="4"/>
-        <v>1085.5483870967741</v>
+        <f t="shared" ref="H138:H150" si="5">E138/F138</f>
+        <v>1112.9032258064517</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C139" s="6">
-        <v>1200</v>
+        <v>699</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E139" s="17">
-        <v>34500</v>
-      </c>
-      <c r="F139" s="17">
+        <v>12</v>
+      </c>
+      <c r="E139" s="9">
+        <v>34955</v>
+      </c>
+      <c r="F139" s="3">
         <v>31</v>
       </c>
-      <c r="G139" s="20" t="s">
+      <c r="G139" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H139">
-        <f t="shared" ref="H139:H151" si="5">E139/F139</f>
-        <v>1112.9032258064517</v>
+        <f t="shared" si="5"/>
+        <v>1127.5806451612902</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C140" s="6">
-        <v>699</v>
+        <v>626</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E140" s="9">
-        <v>34955</v>
-      </c>
-      <c r="F140" s="3">
-        <v>31</v>
-      </c>
-      <c r="G140" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E140" s="16">
+        <v>40264</v>
+      </c>
+      <c r="F140" s="16">
+        <v>35</v>
+      </c>
+      <c r="G140" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H140">
         <f t="shared" si="5"/>
-        <v>1127.5806451612902</v>
+        <v>1150.4000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C141" s="6">
-        <v>626</v>
+        <v>430</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E141" s="16">
-        <v>40264</v>
-      </c>
-      <c r="F141" s="16">
+        <v>10</v>
+      </c>
+      <c r="E141" s="17">
+        <v>41542</v>
+      </c>
+      <c r="F141" s="17">
         <v>35</v>
       </c>
-      <c r="G141" s="19" t="s">
-        <v>5</v>
+      <c r="G141" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H141">
         <f t="shared" si="5"/>
-        <v>1150.4000000000001</v>
+        <v>1186.9142857142858</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>162</v>
-      </c>
-      <c r="B142" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C142" s="6">
-        <v>430</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E142" s="17">
-        <v>41542</v>
-      </c>
-      <c r="F142" s="17">
+      <c r="C142" s="1">
+        <v>598</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E142" s="18">
+        <v>43360</v>
+      </c>
+      <c r="F142" s="18">
         <v>35</v>
       </c>
-      <c r="G142" s="20" t="s">
-        <v>20</v>
+      <c r="G142" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="H142">
         <f t="shared" si="5"/>
-        <v>1186.9142857142858</v>
+        <v>1238.8571428571429</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C143" s="1">
-        <v>598</v>
+        <v>410</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E143" s="18">
-        <v>43360</v>
+        <v>39073</v>
       </c>
       <c r="F143" s="18">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G143" s="21" t="s">
         <v>5</v>
       </c>
       <c r="H143">
         <f t="shared" si="5"/>
-        <v>1238.8571428571429</v>
+        <v>1260.4193548387098</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C144" s="1">
-        <v>410</v>
+        <v>839</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E144" s="18">
-        <v>39073</v>
+        <v>37859</v>
       </c>
       <c r="F144" s="18">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G144" s="21" t="s">
         <v>5</v>
       </c>
       <c r="H144">
         <f t="shared" si="5"/>
-        <v>1260.4193548387098</v>
+        <v>1261.9666666666667</v>
       </c>
     </row>
     <row r="145" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>38</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C145" s="1">
-        <v>839</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E145" s="18">
-        <v>37859</v>
-      </c>
-      <c r="F145" s="18">
-        <v>30</v>
-      </c>
-      <c r="G145" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" s="6">
+        <v>415</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145" s="3">
+        <v>37460</v>
+      </c>
+      <c r="F145" s="3">
+        <v>29</v>
+      </c>
+      <c r="G145" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H145">
         <f t="shared" si="5"/>
-        <v>1261.9666666666667</v>
+        <v>1291.7241379310344</v>
       </c>
     </row>
     <row r="146" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C146" s="6">
-        <v>415</v>
+      <c r="C146" s="10">
+        <v>407</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E146" s="3">
-        <v>37460</v>
+        <v>41982</v>
       </c>
       <c r="F146" s="3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H146">
         <f t="shared" si="5"/>
-        <v>1291.7241379310344</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1311.9375</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C147" s="10">
-        <v>407</v>
+        <v>11</v>
+      </c>
+      <c r="C147" s="6">
+        <v>960</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E147" s="3">
-        <v>41982</v>
-      </c>
-      <c r="F147" s="3">
-        <v>32</v>
-      </c>
-      <c r="G147" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" s="17">
+        <v>40741</v>
+      </c>
+      <c r="F147" s="17">
+        <v>31</v>
+      </c>
+      <c r="G147" s="20" t="s">
         <v>5</v>
       </c>
       <c r="H147">
         <f t="shared" si="5"/>
-        <v>1311.9375</v>
-      </c>
+        <v>1314.2258064516129</v>
+      </c>
+      <c r="I147" s="39"/>
+      <c r="J147" s="39"/>
+      <c r="K147" s="39"/>
+      <c r="L147" s="39"/>
+      <c r="M147" s="39"/>
+      <c r="N147" s="39"/>
+      <c r="O147" s="39"/>
+      <c r="P147" s="39"/>
+      <c r="Q147" s="39"/>
+      <c r="R147" s="39"/>
     </row>
     <row r="148" spans="1:18" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C148" s="6">
-        <v>960</v>
+        <v>242</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E148" s="17">
-        <v>40741</v>
-      </c>
-      <c r="F148" s="17">
+        <v>14</v>
+      </c>
+      <c r="E148" s="3">
+        <v>40914</v>
+      </c>
+      <c r="F148" s="3">
         <v>31</v>
       </c>
-      <c r="G148" s="20" t="s">
-        <v>5</v>
+      <c r="G148" s="22" t="s">
+        <v>2</v>
       </c>
       <c r="H148">
         <f t="shared" si="5"/>
-        <v>1314.2258064516129</v>
-      </c>
-      <c r="I148" s="45"/>
-      <c r="J148" s="45"/>
-      <c r="K148" s="45"/>
-      <c r="L148" s="45"/>
-      <c r="M148" s="45"/>
-      <c r="N148" s="45"/>
-      <c r="O148" s="45"/>
-      <c r="P148" s="45"/>
-      <c r="Q148" s="45"/>
-      <c r="R148" s="45"/>
-    </row>
-    <row r="149" spans="1:18" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1319.8064516129032</v>
+      </c>
+      <c r="I148" s="39"/>
+      <c r="J148" s="39"/>
+      <c r="K148" s="39"/>
+      <c r="L148" s="39"/>
+      <c r="M148" s="39"/>
+      <c r="N148" s="39"/>
+      <c r="O148" s="39"/>
+      <c r="P148" s="39"/>
+      <c r="Q148" s="39"/>
+      <c r="R148" s="39"/>
+    </row>
+    <row r="149" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C149" s="6">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E149" s="3">
-        <v>40914</v>
-      </c>
-      <c r="F149" s="3">
-        <v>31</v>
-      </c>
-      <c r="G149" s="22" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="E149" s="16">
+        <v>43918</v>
+      </c>
+      <c r="F149" s="16">
+        <v>33</v>
+      </c>
+      <c r="G149" s="19" t="s">
+        <v>5</v>
       </c>
       <c r="H149">
         <f t="shared" si="5"/>
-        <v>1319.8064516129032</v>
-      </c>
-      <c r="I149" s="45"/>
-      <c r="J149" s="45"/>
-      <c r="K149" s="45"/>
-      <c r="L149" s="45"/>
-      <c r="M149" s="45"/>
-      <c r="N149" s="45"/>
-      <c r="O149" s="45"/>
-      <c r="P149" s="45"/>
-      <c r="Q149" s="45"/>
-      <c r="R149" s="45"/>
+        <v>1330.8484848484848</v>
+      </c>
     </row>
     <row r="150" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>69</v>
+        <v>157</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C150" s="6">
-        <v>179</v>
+        <v>725</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E150" s="16">
-        <v>43918</v>
-      </c>
-      <c r="F150" s="16">
-        <v>33</v>
-      </c>
-      <c r="G150" s="19" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="E150" s="17">
+        <v>41878</v>
+      </c>
+      <c r="F150" s="17">
+        <v>30</v>
+      </c>
+      <c r="G150" s="20" t="s">
+        <v>2</v>
       </c>
       <c r="H150">
         <f t="shared" si="5"/>
-        <v>1330.8484848484848</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>157</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C151" s="6">
-        <v>725</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E151" s="17">
-        <v>41878</v>
-      </c>
-      <c r="F151" s="17">
-        <v>30</v>
-      </c>
-      <c r="G151" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H151">
-        <f t="shared" si="5"/>
         <v>1395.9333333333334</v>
       </c>
+    </row>
+    <row r="151" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="5"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="5"/>
     </row>
     <row r="152" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="5"/>
@@ -5410,22 +5365,14 @@
       <c r="F161" s="8"/>
       <c r="G161" s="5"/>
     </row>
-    <row r="162" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="5"/>
-      <c r="C162" s="8"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H151" xr:uid="{9A080D28-B992-4796-BF58-48B880EAAFF2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H151">
-      <sortCondition ref="G2:G151"/>
+  <autoFilter ref="A1:H150" xr:uid="{9A080D28-B992-4796-BF58-48B880EAAFF2}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H150">
+      <sortCondition ref="G2:G150"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H162">
-    <sortCondition ref="H2:H162"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H161">
+    <sortCondition ref="H2:H161"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
